--- a/src/kilosort_config_files/SILICON PROBE MAP H5.xlsx
+++ b/src/kilosort_config_files/SILICON PROBE MAP H5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannah\Dropbox\alab\Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannah\Dropbox\alab\Code\spikesort\spikesort-hp\src\kilosort_config_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="12">
   <si>
     <t>Molex channel</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Shank Position</t>
   </si>
   <si>
-    <t>Shank letter</t>
-  </si>
-  <si>
     <t>xpos</t>
   </si>
   <si>
@@ -53,6 +50,18 @@
   </si>
   <si>
     <t>Shank Position: 1 = tip</t>
+  </si>
+  <si>
+    <t>IntanChannel</t>
+  </si>
+  <si>
+    <t>MolexChannel</t>
+  </si>
+  <si>
+    <t>ShankLetter</t>
+  </si>
+  <si>
+    <t>ShankPosition</t>
   </si>
 </sst>
 </file>
@@ -160,12 +169,12 @@
     <sortCondition ref="D1:D65"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="Intan channel" dataDxfId="5"/>
-    <tableColumn id="2" name="Molex channel" dataDxfId="4"/>
-    <tableColumn id="6" name="Shank letter" dataDxfId="3"/>
-    <tableColumn id="5" name="Shank Position" dataDxfId="2"/>
-    <tableColumn id="4" name="xpos" dataDxfId="0"/>
-    <tableColumn id="3" name="ypos" dataDxfId="1"/>
+    <tableColumn id="1" name="IntanChannel" dataDxfId="5"/>
+    <tableColumn id="2" name="MolexChannel" dataDxfId="4"/>
+    <tableColumn id="6" name="ShankLetter" dataDxfId="3"/>
+    <tableColumn id="5" name="ShankPosition" dataDxfId="2"/>
+    <tableColumn id="4" name="xpos" dataDxfId="1"/>
+    <tableColumn id="3" name="ypos" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -450,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,22 +472,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
@@ -492,7 +501,7 @@
         <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -504,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -515,7 +524,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -526,6 +535,7 @@
       <c r="F3">
         <v>1.2499999999999956E-2</v>
       </c>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -535,7 +545,7 @@
         <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -546,7 +556,6 @@
       <c r="F4">
         <v>2.4999999999999911E-2</v>
       </c>
-      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -556,7 +565,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -577,7 +586,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -597,7 +606,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -617,7 +626,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -637,7 +646,7 @@
         <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -657,7 +666,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -677,7 +686,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -697,7 +706,7 @@
         <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -717,7 +726,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -737,7 +746,7 @@
         <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -757,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -777,7 +786,7 @@
         <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -797,7 +806,7 @@
         <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -817,7 +826,7 @@
         <v>39</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -837,7 +846,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -857,7 +866,7 @@
         <v>36</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -877,7 +886,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -897,7 +906,7 @@
         <v>55</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -917,7 +926,7 @@
         <v>41</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -937,7 +946,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -957,7 +966,7 @@
         <v>56</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -977,7 +986,7 @@
         <v>40</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -997,7 +1006,7 @@
         <v>22</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1017,7 +1026,7 @@
         <v>38</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1037,7 +1046,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1057,7 +1066,7 @@
         <v>23</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1077,7 +1086,7 @@
         <v>54</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1097,7 +1106,7 @@
         <v>46</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1117,7 +1126,7 @@
         <v>18</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1137,7 +1146,7 @@
         <v>63</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1157,7 +1166,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1177,7 +1186,7 @@
         <v>15</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1197,7 +1206,7 @@
         <v>45</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1217,7 +1226,7 @@
         <v>62</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1237,7 +1246,7 @@
         <v>11</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1257,7 +1266,7 @@
         <v>31</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1277,7 +1286,7 @@
         <v>44</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1297,7 +1306,7 @@
         <v>14</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1317,7 +1326,7 @@
         <v>28</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1337,7 +1346,7 @@
         <v>47</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1357,7 +1366,7 @@
         <v>57</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1377,7 +1386,7 @@
         <v>32</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1397,7 +1406,7 @@
         <v>43</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1417,7 +1426,7 @@
         <v>59</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1437,7 +1446,7 @@
         <v>9</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1457,7 +1466,7 @@
         <v>12</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1477,7 +1486,7 @@
         <v>25</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1497,7 +1506,7 @@
         <v>29</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1517,7 +1526,7 @@
         <v>24</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1537,7 +1546,7 @@
         <v>60</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1557,7 +1566,7 @@
         <v>26</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1577,7 +1586,7 @@
         <v>13</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1597,7 +1606,7 @@
         <v>42</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1617,7 +1626,7 @@
         <v>61</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1637,7 +1646,7 @@
         <v>10</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1657,7 +1666,7 @@
         <v>16</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1677,7 +1686,7 @@
         <v>27</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -1697,7 +1706,7 @@
         <v>48</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -1717,7 +1726,7 @@
         <v>58</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -1737,7 +1746,7 @@
         <v>64</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -1757,7 +1766,7 @@
         <v>30</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D65">
         <v>64</v>
